--- a/date/レビュー結果記録/議事録チェック一覧 .xlsx
+++ b/date/レビュー結果記録/議事録チェック一覧 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2F0380-6117-4562-8A53-3C2BBDF797E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87B7AF5-1208-406C-B7EE-685E287FA7C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15255" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="840" windowWidth="14430" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -197,6 +197,22 @@
     </rPh>
     <rPh sb="10" eb="14">
       <t>ヨウキュウブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05レビュー議事録（要求分析_2回目)</t>
+    <rPh sb="6" eb="9">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,7 +723,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,8 +841,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
@@ -1248,12 +1268,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1437,6 +1451,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
   <ds:schemaRefs>
@@ -1446,15 +1466,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54135F1D-1B0F-4540-A8A3-56BD0C871242}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1470,4 +1481,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>